--- a/lesson-20-edu/blogs/GenAI/EOA-seminar/docs/HI-AGI-GenAI-TT.xlsx
+++ b/lesson-20-edu/blogs/GenAI/EOA-seminar/docs/HI-AGI-GenAI-TT.xlsx
@@ -79,8 +79,8 @@
 • Possibly superhuman abilities in some or all areas</t>
   </si>
   <si>
-    <t xml:space="preserve">• Generate text, images, code
-• Analyze and process data
+    <t xml:space="preserve">• Generate text, images, code, audio/video
+• Analyze and process big data
 • Limited contextual understanding
 • Pattern recognition and application</t>
   </si>
@@ -113,6 +113,145 @@
   </si>
   <si>
     <t xml:space="preserve">Creativity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Original ideas / • Innovation
+• Artistic expression
+• Dreaming (both sleeping and aspirational)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Potential for novel idea generation
+• Possible superhuman creative abilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Combine and recombine existing ideas in novel ways
+• Generate variations on themes
+• No true understanding of created content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Demonstrate creative language use
+• Generate human-like creative responses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical Abilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Motor skills / • Reproduction
+• Sensory perception
+• Physical interaction with environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Potential for advanced robotic integration
+• Possible superhuman physical abilities through robotic bodies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Robot, No physical embodiment
+• Can generate instructions or designs for physical tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Not applicable (text-based test)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-Awareness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Consciousness / • Self-reflection
+• Metacognition / • Existential thinking (e.g., contemplating mortality)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Debated philosophical question
+• Potential for advanced self-awareness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• No true self-awareness
+• Can generate text about self-awareness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Ability to discuss self and experiences convincingly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emotional Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Experience joy, sadness, anger, fear
+• Complex emotions: nostalgia, melancholy
+• Aspire and despair / • Love and grieve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Theoretical potential to simulate full emotional range
+• Philosophical questions about genuine emotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Generate content expressing emotions
+• No genuine emotional experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Simulate a range of emotional responses in conversation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiritual &amp; Philosophical Aspects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Capacity for faith and spirituality
+• Engage in prayer or meditation
+• Ponder existence and meaning
+• Develop and follow moral codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Potential for understanding spiritual concepts
+• Ability to reason about ethics and philosophy
+• Question of machine consciousness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Generate content about spiritual or philosophical topics
+• No genuine spiritual experience or beliefs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Engage in discussions about spirituality and philosophy
+• Cannot genuinely hold beliefs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Bonding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Form deep, lasting relationships
+• Altruism and sacrifice for others
+• Intergenerational knowledge transfer
+• Cultural participation and creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Potential for advanced social modeling
+• Question of genuine connection vs simulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Simulate social interactions
+• Generate content about relationships
+• No genuine social bonds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Simulate relationship-building in conversation
+• Cannot form genuine bonds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique Human Traits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Humor / • Intuition / • Gut feelings
+• Appreciation of beauty
+• Experience of qualia / • Serendipity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Uncertain if these can be truly replicated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Can mimic but not genuinely experience
+• Generate content related to these concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Potentially simulate these traits in conversation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limitations</t>
   </si>
   <si>
     <r>
@@ -122,7 +261,9 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">• Original ideas / </t>
+      <t xml:space="preserve">• Cognitive biases
+• Physical limitations
+• Need for food/sleep/play</t>
     </r>
     <r>
       <rPr>
@@ -130,7 +271,7 @@
         <rFont val="Times New Roman"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">• Innovation
+      <t xml:space="preserve">/work
 </t>
     </r>
     <r>
@@ -140,125 +281,13 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">• Artistic expression
-• Dreaming (both sleeping and aspirational)</t>
+      <t xml:space="preserve">• Mortality</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">• Potential for novel idea generation
-• Possible superhuman creative abilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Combine and recombine existing ideas in novel ways
-• Generate variations on themes
-• No true understanding of created content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Demonstrate creative language use
-• Generate human-like creative responses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Physical Abilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Motor skills / • Reproduction
-• Sensory perception
-• Physical interaction with environment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Potential for advanced robotic integration
-• Possible superhuman physical abilities through robotic bodies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• No physical embodiment
-• Can generate instructions or designs for physical tasks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Not applicable (text-based test)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self-Awareness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Consciousness / • Self-reflection
-• Metacognition / • Existential thinking (e.g., contemplating mortality)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Debated philosophical question
-• Potential for advanced self-awareness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• No true self-awareness
-• Can generate text about self-awareness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Ability to discuss self and experiences convincingly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emotional Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Experience joy, sadness, anger, fear
-• Complex emotions: nostalgia, melancholy
-• Aspire and despair / • Love and grieve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Theoretical potential to simulate full emotional range
-• Philosophical questions about genuine emotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Generate content expressing emotions
-• No genuine emotional experience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Simulate a range of emotional responses in conversation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spiritual &amp; Philosophical Aspects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Capacity for faith and spirituality
-• Engage in prayer or meditation
-• Ponder existence and meaning
-• Develop and follow moral codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Potential for understanding spiritual concepts
-• Ability to reason about ethics and philosophy
-• Question of machine consciousness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Generate content about spiritual or philosophical topics
-• No genuine spiritual experience or beliefs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Engage in discussions about spirituality and philosophy
-• Cannot genuinely hold beliefs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social Bonding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Form deep, lasting relationships
-• Altruism and sacrifice for others
-• Intergenerational knowledge transfer
-• Cultural participation and creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Potential for advanced social modeling
-• Question of genuine connection vs simulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Simulate social interactions
-• Generate content about relationships
-• No genuine social bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Simulate relationship-building in conversation
-• Cannot form genuine bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unique Human Traits</t>
+    <t xml:space="preserve">• Unknown
+• Potential ethical concerns
+• Possible unforeseen consequences</t>
   </si>
   <si>
     <r>
@@ -268,16 +297,18 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">• Humor / </t>
+      <t xml:space="preserve">• Bounded by training data
+• Lack of true understanding
+• No general intelligence
+• Don’t know when to shut up (</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="0"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">• Intuition / • Gut feelings
-</t>
+      <t xml:space="preserve">住口</t>
     </r>
     <r>
       <rPr>
@@ -286,39 +317,8 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">• Appreciation of beauty
-• Experience of qualia / • Serendipity</t>
+      <t xml:space="preserve">)</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">• Uncertain if these can be truly replicated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Can mimic but not genuinely experience
-• Generate content related to these concepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Potentially simulate these traits in conversation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Limitations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Cognitive biases
-• Physical limitations
-• Need for rest/sleep
-• Mortality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Unknown
-• Potential ethical concerns
-• Possible unforeseen consequences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Bounded by training data
-• Lack of true understanding
-• No general intelligence
-• Potential for biased outputs</t>
   </si>
   <si>
     <t xml:space="preserve">• Limited to language-based interaction
@@ -332,7 +332,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -386,6 +386,11 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -586,11 +591,11 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -806,7 +811,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="48.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
         <v>60</v>
       </c>
@@ -824,11 +829,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
+      <c r="A14" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
